--- a/biology/Zoologie/Hapalemur_alaotrensis/Hapalemur_alaotrensis.xlsx
+++ b/biology/Zoologie/Hapalemur_alaotrensis/Hapalemur_alaotrensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hapalémur du Lac Alaotra, Hapalémur gris d'Alaotra
-L'hapalémur du Lac Alaotra[1] ou hapalémur gris d'Alaotra[2] (Hapalemur alaotrensis) est une espèce de primate lémuriforme appartenant à la famille des Lemuridae.
+L'hapalémur du Lac Alaotra ou hapalémur gris d'Alaotra (Hapalemur alaotrensis) est une espèce de primate lémuriforme appartenant à la famille des Lemuridae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hapalémur du lac Alaotra est une espèce de lémuriens de taille moyenne, au pelage laineux dense d'un gris-brun sur le dos, gris plus clair sur le visage et la poitrine, et marron sur la tête et le cou. Il se caractérise par une tête, un museau et de petites oreilles arrondis. Il a une taille 30 à 40 cm en moyenne (+ 40 cm de queue) et pèse entre 1 et 2 kg.
 Il pourrait vivre 20 ans dans la nature et jusqu'à 30 ans en captivité.
@@ -546,14 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comportement
-Actif de jour comme de nuit, les périodes principales de son activité se situent à l’aube et au crépuscule, où il passe la majorité de son temps à manger. Animal sociable, il vit en groupes familiaux de 3 à 6 individus, composés d'un couple reproducteur et de ses descendants. Ces derniers défendent leur territoire en utilisant des vocalisations et des marquages olfactifs et maintiennent la cohésion du groupe par un toilettage réciproque et des attitudes corporelles spécifiques.
-Déplacement
-La forme de ses mains et de ses pieds lui impose un mode de déplacement différent des autres lémuriens. Il progresse en s'accrochant à une tige de roseau jusqu’à ce qu'elle plie et qu'il puisse en attraper une autre, en s'équilibrant avec sa queue. Sa petite taille lui permet de grimper aux roseaux les plus fins. Cependant, il peut également se déplacer en grimpant, en sautant voire en nageant lorsque cela s'avère nécessaire..
-Alimentation
-Il se nourrit principalement des tiges du papyrus Cyperus madagascariensis  (il est donc capable de survivre à un régime de tige ligneuse), des pousses de Phragmites communis et de 2 types d'herbes : Echinocochla crusgalli et Leersia hexandra[3].
-Reproduction
-La gestation dure 5 mois et la portée, qui a lieu tous les deux ans, se compose de 1 à 2 petits. Les petits s’accrochent au pelage de leur mère qui les transporte sur son dos et les nourrit jusqu’à’ l’âge de six semaines. Après 20 semaines, ils sont sevrés et autonomes. Ils partiront fonder leur propre groupe dès leur maturité sexuelle.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actif de jour comme de nuit, les périodes principales de son activité se situent à l’aube et au crépuscule, où il passe la majorité de son temps à manger. Animal sociable, il vit en groupes familiaux de 3 à 6 individus, composés d'un couple reproducteur et de ses descendants. Ces derniers défendent leur territoire en utilisant des vocalisations et des marquages olfactifs et maintiennent la cohésion du groupe par un toilettage réciproque et des attitudes corporelles spécifiques.
 </t>
         </is>
       </c>
@@ -579,12 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est endémique aux rives du lac Alaotra dans le nord-est de Madagascar. Il vit dans la végétation marécageuse autour du lac composées de papyrus et de roseaux.
+          <t>Déplacement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme de ses mains et de ses pieds lui impose un mode de déplacement différent des autres lémuriens. Il progresse en s'accrochant à une tige de roseau jusqu’à ce qu'elle plie et qu'il puisse en attraper une autre, en s'équilibrant avec sa queue. Sa petite taille lui permet de grimper aux roseaux les plus fins. Cependant, il peut également se déplacer en grimpant, en sautant voire en nageant lorsque cela s'avère nécessaire..
 </t>
         </is>
       </c>
@@ -610,10 +629,119 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement des tiges du papyrus Cyperus madagascariensis  (il est donc capable de survivre à un régime de tige ligneuse), des pousses de Phragmites communis et de 2 types d'herbes : Echinocochla crusgalli et Leersia hexandra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hapalemur_alaotrensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hapalemur_alaotrensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gestation dure 5 mois et la portée, qui a lieu tous les deux ans, se compose de 1 à 2 petits. Les petits s’accrochent au pelage de leur mère qui les transporte sur son dos et les nourrit jusqu’à’ l’âge de six semaines. Après 20 semaines, ils sont sevrés et autonomes. Ils partiront fonder leur propre groupe dès leur maturité sexuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hapalemur_alaotrensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hapalemur_alaotrensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est endémique aux rives du lac Alaotra dans le nord-est de Madagascar. Il vit dans la végétation marécageuse autour du lac composées de papyrus et de roseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hapalemur_alaotrensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hapalemur_alaotrensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La limitation de sa zone d’habitat et de ses sources de nourritures rend l'hapalémur particulièrement vulnérable. Le lac Alaotra est en effet la zone la plus utilisée pour la culture du riz de Madagascar. De vastes étendues de terrains de roseaux y sont brûlées régulièrement. Cette espèce est également chassée pour sa chair ou pour être vendue comme animal de compagnie. 
 L’Hapalémur du lac Alaotra est donc classé depuis 2002 en « Danger critique d’extinction » sur la liste rouge de l’UICN. Cette espèce est aussi une des dix-huit espèces de primates de Madagascar à avoir été incluse entre 2000 et 2020 dans la liste des 25 espèces de primates les plus menacées au monde (2000 ; 2014 ; 2016 ; 2018). 
